--- a/raw-data/JRL_block1_30_16_7.xlsx
+++ b/raw-data/JRL_block1_30_16_7.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">-1815298416</definedName>
-    <definedName name="MethodPointer2">552</definedName>
+    <definedName name="MethodPointer1">720228016</definedName>
+    <definedName name="MethodPointer2">483</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -535,6 +535,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBAD7EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFABCEEA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -547,7 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBAD7EF"/>
+        <fgColor rgb="FFD8E9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DBCE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,13 +577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8E9F9"/>
+        <fgColor rgb="FF60A0D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF247CBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3385C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,24 +602,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7EB2DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8DBCE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF60A0D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3385C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,52 +696,52 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45766</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.56717592592592592</v>
+        <v>0.56138888888888883</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>22.3</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.3</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1683,40 +1683,40 @@
         <v>38</v>
       </c>
       <c r="C49" s="9">
+        <v>10</v>
+      </c>
+      <c r="D49" s="9">
+        <v>13</v>
+      </c>
+      <c r="E49" s="9">
+        <v>7</v>
+      </c>
+      <c r="F49" s="9">
+        <v>12</v>
+      </c>
+      <c r="G49" s="9">
         <v>11</v>
-      </c>
-      <c r="D49" s="9">
-        <v>11</v>
-      </c>
-      <c r="E49" s="9">
-        <v>13</v>
-      </c>
-      <c r="F49" s="9">
-        <v>14</v>
-      </c>
-      <c r="G49" s="9">
-        <v>12</v>
       </c>
       <c r="H49" s="9">
         <v>9</v>
       </c>
       <c r="I49" s="9">
+        <v>11</v>
+      </c>
+      <c r="J49" s="9">
+        <v>11</v>
+      </c>
+      <c r="K49" s="9">
+        <v>12</v>
+      </c>
+      <c r="L49" s="9">
+        <v>10</v>
+      </c>
+      <c r="M49" s="9">
         <v>9</v>
       </c>
-      <c r="J49" s="9">
+      <c r="N49" s="9">
         <v>12</v>
-      </c>
-      <c r="K49" s="9">
-        <v>9</v>
-      </c>
-      <c r="L49" s="9">
-        <v>16</v>
-      </c>
-      <c r="M49" s="9">
-        <v>13</v>
-      </c>
-      <c r="N49" s="9">
-        <v>13</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
@@ -1725,40 +1725,40 @@
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="31"/>
       <c r="C50" s="10">
-        <v>0.89</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D50" s="11">
-        <v>0.997</v>
-      </c>
-      <c r="E50" s="11">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.999</v>
+      </c>
+      <c r="F50" s="12">
         <v>1.0389999999999999</v>
       </c>
-      <c r="F50" s="11">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="G50" s="12">
-        <v>1.113</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I50" s="11">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="K50" s="11">
+      <c r="G50" s="13">
+        <v>1.101</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I50" s="12">
         <v>1.012</v>
       </c>
+      <c r="J50" s="14">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1.018</v>
+      </c>
       <c r="L50" s="10">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="M50" s="14">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="N50" s="12">
-        <v>1.115</v>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="M50" s="15">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="N50" s="16">
+        <v>1.153</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
@@ -1769,7 +1769,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="9">
         <v>10</v>
@@ -1778,28 +1778,28 @@
         <v>12</v>
       </c>
       <c r="F51" s="9">
+        <v>11</v>
+      </c>
+      <c r="G51" s="17">
+        <v>3081</v>
+      </c>
+      <c r="H51" s="9">
+        <v>15</v>
+      </c>
+      <c r="I51" s="18">
+        <v>433</v>
+      </c>
+      <c r="J51" s="9">
+        <v>13</v>
+      </c>
+      <c r="K51" s="9">
         <v>10</v>
       </c>
-      <c r="G51" s="15">
-        <v>3406</v>
-      </c>
-      <c r="H51" s="9">
-        <v>10</v>
-      </c>
-      <c r="I51" s="9">
-        <v>261</v>
-      </c>
-      <c r="J51" s="9">
-        <v>11</v>
-      </c>
-      <c r="K51" s="9">
-        <v>14</v>
-      </c>
       <c r="L51" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M51" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N51" s="9">
         <v>13</v>
@@ -1810,41 +1810,41 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="31"/>
-      <c r="C52" s="16">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="D52" s="11">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="E52" s="13">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="F52" s="13">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="G52" s="16">
-        <v>1.294</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1.0389999999999999</v>
+      <c r="C52" s="19">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1.002</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1.276</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I52" s="12">
+        <v>1.004</v>
       </c>
       <c r="J52" s="10">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="K52" s="12">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="L52" s="12">
-        <v>1.111</v>
-      </c>
-      <c r="M52" s="17">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="N52" s="16">
-        <v>1.3260000000000001</v>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="K52" s="13">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="L52" s="13">
+        <v>1.091</v>
+      </c>
+      <c r="M52" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="N52" s="20">
+        <v>1.34</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
@@ -1855,37 +1855,37 @@
         <v>65</v>
       </c>
       <c r="C53" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E53" s="9">
-        <v>11</v>
-      </c>
-      <c r="F53" s="18">
-        <v>1359</v>
+        <v>14</v>
+      </c>
+      <c r="F53" s="21">
+        <v>981</v>
       </c>
       <c r="G53" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H53" s="9">
         <v>9</v>
       </c>
       <c r="I53" s="9">
-        <v>27</v>
-      </c>
-      <c r="J53" s="19">
-        <v>3838</v>
+        <v>25</v>
+      </c>
+      <c r="J53" s="22">
+        <v>3830</v>
       </c>
       <c r="K53" s="9">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L53" s="9">
         <v>13</v>
       </c>
       <c r="M53" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N53" s="9">
         <v>12</v>
@@ -1896,41 +1896,41 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="31"/>
-      <c r="C54" s="20">
-        <v>1.4870000000000001</v>
-      </c>
-      <c r="D54" s="13">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="E54" s="21">
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="F54" s="22">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="G54" s="11">
-        <v>1.0409999999999999</v>
-      </c>
-      <c r="H54" s="17">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="I54" s="22">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="J54" s="16">
-        <v>1.32</v>
+      <c r="C54" s="23">
+        <v>1.474</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="F54" s="16">
+        <v>1.165</v>
+      </c>
+      <c r="G54" s="12">
+        <v>1.014</v>
+      </c>
+      <c r="H54" s="15">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I54" s="16">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="J54" s="19">
+        <v>1.276</v>
       </c>
       <c r="K54" s="11">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="L54" s="11">
-        <v>1.05</v>
-      </c>
-      <c r="M54" s="11">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="N54" s="22">
-        <v>1.196</v>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L54" s="12">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="M54" s="12">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="N54" s="16">
+        <v>1.1839999999999999</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
@@ -1941,40 +1941,40 @@
         <v>78</v>
       </c>
       <c r="C55" s="9">
+        <v>7</v>
+      </c>
+      <c r="D55" s="9">
+        <v>11</v>
+      </c>
+      <c r="E55" s="9">
+        <v>13</v>
+      </c>
+      <c r="F55" s="9">
+        <v>11</v>
+      </c>
+      <c r="G55" s="9">
+        <v>19</v>
+      </c>
+      <c r="H55" s="21">
+        <v>1071</v>
+      </c>
+      <c r="I55" s="9">
         <v>14</v>
       </c>
-      <c r="D55" s="9">
-        <v>9</v>
-      </c>
-      <c r="E55" s="9">
-        <v>11</v>
-      </c>
-      <c r="F55" s="9">
-        <v>13</v>
-      </c>
-      <c r="G55" s="9">
-        <v>26</v>
-      </c>
-      <c r="H55" s="23">
-        <v>2012</v>
-      </c>
-      <c r="I55" s="9">
-        <v>7</v>
-      </c>
       <c r="J55" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K55" s="9">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L55" s="9">
-        <v>112</v>
-      </c>
-      <c r="M55" s="15">
-        <v>3425</v>
+        <v>139</v>
+      </c>
+      <c r="M55" s="24">
+        <v>3558</v>
       </c>
       <c r="N55" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
@@ -1982,41 +1982,41 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="31"/>
-      <c r="C56" s="20">
-        <v>1.472</v>
+      <c r="C56" s="25">
+        <v>1.4339999999999999</v>
       </c>
       <c r="D56" s="12">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="E56" s="24">
-        <v>1.385</v>
+        <v>1.006</v>
+      </c>
+      <c r="E56" s="26">
+        <v>1.2190000000000001</v>
       </c>
       <c r="F56" s="11">
-        <v>1.048</v>
-      </c>
-      <c r="G56" s="22">
-        <v>1.196</v>
-      </c>
-      <c r="H56" s="22">
-        <v>1.139</v>
-      </c>
-      <c r="I56" s="12">
-        <v>1.101</v>
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1.097</v>
+      </c>
+      <c r="H56" s="12">
+        <v>1</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0.92200000000000004</v>
       </c>
       <c r="J56" s="12">
-        <v>1.097</v>
-      </c>
-      <c r="K56" s="13">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="L56" s="12">
-        <v>1.129</v>
-      </c>
-      <c r="M56" s="24">
-        <v>1.413</v>
-      </c>
-      <c r="N56" s="24">
-        <v>1.369</v>
+        <v>1.004</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="M56" s="20">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="N56" s="20">
+        <v>1.3660000000000001</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
@@ -2027,40 +2027,40 @@
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" s="9">
-        <v>19</v>
-      </c>
-      <c r="F57" s="25">
-        <v>1623</v>
+        <v>21</v>
+      </c>
+      <c r="F57" s="27">
+        <v>2608</v>
       </c>
       <c r="G57" s="9">
         <v>8</v>
       </c>
       <c r="H57" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J57" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K57" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L57" s="9">
-        <v>129</v>
-      </c>
-      <c r="M57" s="23">
-        <v>1847</v>
+        <v>138</v>
+      </c>
+      <c r="M57" s="27">
+        <v>2605</v>
       </c>
       <c r="N57" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
@@ -2068,41 +2068,41 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="31"/>
-      <c r="C58" s="26">
-        <v>1.5529999999999999</v>
-      </c>
-      <c r="D58" s="21">
-        <v>1.258</v>
-      </c>
-      <c r="E58" s="21">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="F58" s="26">
-        <v>1.5509999999999999</v>
+      <c r="C58" s="23">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1.083</v>
+      </c>
+      <c r="E58" s="16">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F58" s="25">
+        <v>1.431</v>
       </c>
       <c r="G58" s="16">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="H58" s="27">
-        <v>1.599</v>
-      </c>
-      <c r="I58" s="24">
-        <v>1.373</v>
-      </c>
-      <c r="J58" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="K58" s="20">
-        <v>1.431</v>
-      </c>
-      <c r="L58" s="21">
-        <v>1.274</v>
-      </c>
-      <c r="M58" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="N58" s="24">
-        <v>1.381</v>
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="H58" s="25">
+        <v>1.44</v>
+      </c>
+      <c r="I58" s="26">
+        <v>1.212</v>
+      </c>
+      <c r="J58" s="26">
+        <v>1.26</v>
+      </c>
+      <c r="K58" s="19">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="L58" s="16">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="M58" s="26">
+        <v>1.212</v>
+      </c>
+      <c r="N58" s="20">
+        <v>1.3979999999999999</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
@@ -2113,40 +2113,40 @@
         <v>104</v>
       </c>
       <c r="C59" s="9">
+        <v>6</v>
+      </c>
+      <c r="D59" s="9">
         <v>13</v>
       </c>
-      <c r="D59" s="9">
+      <c r="E59" s="9">
+        <v>19</v>
+      </c>
+      <c r="F59" s="9">
         <v>9</v>
       </c>
-      <c r="E59" s="9">
-        <v>21</v>
-      </c>
-      <c r="F59" s="9">
-        <v>15</v>
-      </c>
       <c r="G59" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H59" s="9">
-        <v>25</v>
-      </c>
-      <c r="I59" s="28">
-        <v>479</v>
+        <v>22</v>
+      </c>
+      <c r="I59" s="9">
+        <v>280</v>
       </c>
       <c r="J59" s="9">
-        <v>14</v>
-      </c>
-      <c r="K59" s="15">
-        <v>3338</v>
+        <v>16</v>
+      </c>
+      <c r="K59" s="28">
+        <v>2984</v>
       </c>
       <c r="L59" s="9">
-        <v>12</v>
-      </c>
-      <c r="M59" s="23">
-        <v>1761</v>
+        <v>10</v>
+      </c>
+      <c r="M59" s="27">
+        <v>2645</v>
       </c>
       <c r="N59" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
@@ -2154,41 +2154,41 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="31"/>
-      <c r="C60" s="24">
-        <v>1.3779999999999999</v>
-      </c>
-      <c r="D60" s="21">
-        <v>1.262</v>
-      </c>
-      <c r="E60" s="21">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="F60" s="21">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="G60" s="24">
-        <v>1.355</v>
-      </c>
-      <c r="H60" s="20">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="I60" s="22">
-        <v>1.202</v>
-      </c>
-      <c r="J60" s="16">
-        <v>1.345</v>
-      </c>
-      <c r="K60" s="20">
-        <v>1.4450000000000001</v>
+      <c r="C60" s="20">
+        <v>1.365</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E60" s="16">
+        <v>1.131</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="G60" s="26">
+        <v>1.22</v>
+      </c>
+      <c r="H60" s="19">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="I60" s="13">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="J60" s="26">
+        <v>1.254</v>
+      </c>
+      <c r="K60" s="19">
+        <v>1.294</v>
       </c>
       <c r="L60" s="16">
-        <v>1.325</v>
-      </c>
-      <c r="M60" s="13">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="N60" s="21">
-        <v>1.23</v>
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="M60" s="12">
+        <v>1.04</v>
+      </c>
+      <c r="N60" s="26">
+        <v>1.2070000000000001</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
@@ -2199,40 +2199,40 @@
         <v>117</v>
       </c>
       <c r="C61" s="9">
+        <v>12</v>
+      </c>
+      <c r="D61" s="9">
+        <v>12</v>
+      </c>
+      <c r="E61" s="9">
+        <v>12</v>
+      </c>
+      <c r="F61" s="9">
         <v>11</v>
       </c>
-      <c r="D61" s="9">
+      <c r="G61" s="9">
+        <v>10</v>
+      </c>
+      <c r="H61" s="9">
         <v>11</v>
       </c>
-      <c r="E61" s="9">
+      <c r="I61" s="9">
+        <v>11</v>
+      </c>
+      <c r="J61" s="22">
+        <v>3885</v>
+      </c>
+      <c r="K61" s="9">
+        <v>12</v>
+      </c>
+      <c r="L61" s="9">
+        <v>30</v>
+      </c>
+      <c r="M61" s="9">
+        <v>8</v>
+      </c>
+      <c r="N61" s="9">
         <v>13</v>
-      </c>
-      <c r="F61" s="9">
-        <v>8</v>
-      </c>
-      <c r="G61" s="9">
-        <v>12</v>
-      </c>
-      <c r="H61" s="9">
-        <v>10</v>
-      </c>
-      <c r="I61" s="9">
-        <v>10</v>
-      </c>
-      <c r="J61" s="19">
-        <v>4084</v>
-      </c>
-      <c r="K61" s="9">
-        <v>11</v>
-      </c>
-      <c r="L61" s="9">
-        <v>32</v>
-      </c>
-      <c r="M61" s="9">
-        <v>12</v>
-      </c>
-      <c r="N61" s="9">
-        <v>12</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
@@ -2241,40 +2241,40 @@
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="31"/>
       <c r="C62" s="29">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="D62" s="22">
-        <v>1.157</v>
-      </c>
-      <c r="E62" s="16">
-        <v>1.32</v>
-      </c>
-      <c r="F62" s="22">
-        <v>1.157</v>
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="E62" s="19">
+        <v>1.294</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1.002</v>
       </c>
       <c r="G62" s="16">
-        <v>1.304</v>
-      </c>
-      <c r="H62" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="I62" s="24">
-        <v>1.421</v>
-      </c>
-      <c r="J62" s="26">
-        <v>1.5489999999999999</v>
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1.044</v>
+      </c>
+      <c r="I62" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="J62" s="25">
+        <v>1.41</v>
       </c>
       <c r="K62" s="12">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="L62" s="22">
-        <v>1.1619999999999999</v>
+        <v>1.048</v>
+      </c>
+      <c r="L62" s="13">
+        <v>1.081</v>
       </c>
       <c r="M62" s="11">
-        <v>1.024</v>
-      </c>
-      <c r="N62" s="27">
-        <v>1.637</v>
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="N62" s="29">
+        <v>1.6080000000000001</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
@@ -2285,22 +2285,22 @@
         <v>130</v>
       </c>
       <c r="C63" s="9">
+        <v>12</v>
+      </c>
+      <c r="D63" s="9">
         <v>10</v>
       </c>
-      <c r="D63" s="9">
-        <v>8</v>
-      </c>
       <c r="E63" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F63" s="9">
         <v>10</v>
       </c>
       <c r="G63" s="9">
+        <v>9</v>
+      </c>
+      <c r="H63" s="9">
         <v>12</v>
-      </c>
-      <c r="H63" s="9">
-        <v>9</v>
       </c>
       <c r="I63" s="9">
         <v>14</v>
@@ -2309,16 +2309,16 @@
         <v>11</v>
       </c>
       <c r="K63" s="9">
+        <v>7</v>
+      </c>
+      <c r="L63" s="9">
         <v>10</v>
       </c>
-      <c r="L63" s="9">
+      <c r="M63" s="9">
         <v>12</v>
       </c>
-      <c r="M63" s="9">
-        <v>11</v>
-      </c>
       <c r="N63" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
@@ -2326,41 +2326,41 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="31"/>
-      <c r="C64" s="13">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="D64" s="22">
-        <v>1.145</v>
+      <c r="C64" s="11">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1.07</v>
       </c>
       <c r="E64" s="12">
+        <v>1.006</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0.999</v>
+      </c>
+      <c r="G64" s="13">
         <v>1.099</v>
       </c>
-      <c r="F64" s="12">
-        <v>1.08</v>
-      </c>
-      <c r="G64" s="22">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="H64" s="22">
-        <v>1.177</v>
+      <c r="H64" s="13">
+        <v>1.1180000000000001</v>
       </c>
       <c r="I64" s="12">
-        <v>1.085</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="J64" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="K64" s="13">
-        <v>0.94199999999999995</v>
+        <v>0.88</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0.91600000000000004</v>
       </c>
       <c r="L64" s="12">
-        <v>1.073</v>
+        <v>1.046</v>
       </c>
       <c r="M64" s="12">
-        <v>1.091</v>
-      </c>
-      <c r="N64" s="12">
-        <v>1.1060000000000001</v>
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="N64" s="13">
+        <v>1.0880000000000001</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
